--- a/biology/Botanique/Olea_capensis_subsp._macrocarpa/Olea_capensis_subsp._macrocarpa.xlsx
+++ b/biology/Botanique/Olea_capensis_subsp._macrocarpa/Olea_capensis_subsp._macrocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea capensis subsp. macrocarpa est une sous-espèce de l'espèce Olea capensis laquelle appartient à la famille des Oleaceae.
 On trouve ces oliviers en Afrique (Rwanda, Kenya, Madagascar etc.).
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbre de 3 à 30 m de haut. Ses feuilles sont coriaces avec un pétiole de (7-)10 mm à 15(-20) mm de longueur. Le limbe est habituellement elliptique mais varie d'étroitement ovale à largement lancéolé, elliptique ou oblong, de (3-)4 à 16 cm de long, (0,8-)2 à 6,5 cm de large, avec un apex aigu ou acuminé, parfois obtus mais avec un acumen abrupt. La nervure moyenne et les secondaires sont légèrement surélevées sur chacune des faces, au nombre de 6 à 7 de part et d'autre de la nervure centrale.
-Appareil reproducteur
-Aucune observation disponible sur les fleurs.
-Les fruits sont des drupes ovoïdes à ellipsoïdes, de 10 à 18 par 10 mm.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de 3 à 30 m de haut. Ses feuilles sont coriaces avec un pétiole de (7-)10 mm à 15(-20) mm de longueur. Le limbe est habituellement elliptique mais varie d'étroitement ovale à largement lancéolé, elliptique ou oblong, de (3-)4 à 16 cm de long, (0,8-)2 à 6,5 cm de large, avec un apex aigu ou acuminé, parfois obtus mais avec un acumen abrupt. La nervure moyenne et les secondaires sont légèrement surélevées sur chacune des faces, au nombre de 6 à 7 de part et d'autre de la nervure centrale.
 </t>
         </is>
       </c>
@@ -544,14 +558,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Synonymes</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olea macrocarpa C.H.Wright
-Olea hochstetteri Baker
-Olea capensis subsp. hochstetteri (Baker) Friis &amp; P.S.Green</t>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune observation disponible sur les fleurs.
+Les fruits sont des drupes ovoïdes à ellipsoïdes, de 10 à 18 par 10 mm.
+</t>
         </is>
       </c>
     </row>
@@ -576,16 +596,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Olea macrocarpa C.H.Wright
+Olea hochstetteri Baker
+Olea capensis subsp. hochstetteri (Baker) Friis &amp; P.S.Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_capensis_subsp._macrocarpa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis_subsp._macrocarpa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>République de Guinée : Massif de Ziama ;
-Sierra Leone : Monts Tingi, pentes du Neramofondi, collines de Freetown[1] ;
+Sierra Leone : Monts Tingi, pentes du Neramofondi, collines de Freetown ;
 Côte d'Ivoire : Mont Momy, Monts des Dans ;
 Nigeria : Plateau de Jos (près de Binchi), Mont Vogel ;
-Cameroun : Monts Mandara (sommet de l'Hosséré Oupay), Mont Cameroun, Monts Bamboutos, Mont Poli[1] ;
+Cameroun : Monts Mandara (sommet de l'Hosséré Oupay), Mont Cameroun, Monts Bamboutos, Mont Poli ;
 Congo-Kinshasa : Monts du Kivu;
 Madagascar : Diego-Suarez et Parc national de la Montagne d'Ambre ;
 Ruanda
@@ -596,31 +652,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Olea_capensis_subsp._macrocarpa</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_capensis_subsp._macrocarpa</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
